--- a/리볼트데이 버그 리포트19-02-03(이태라).xlsx
+++ b/리볼트데이 버그 리포트19-02-03(이태라).xlsx
@@ -230,11 +230,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세이브 로드가 작동이 안 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월드맵 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 로드가 작동이 안 됨. 세이브 부분에서 기록이 바로 안뜨고 불러오기 했을 경우 프롤로그부터 다시 시작.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,7 +700,7 @@
   <dimension ref="A4:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,10 +834,10 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1"/>

--- a/리볼트데이 버그 리포트19-02-03(이태라).xlsx
+++ b/리볼트데이 버그 리포트19-02-03(이태라).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,30 @@
   </si>
   <si>
     <t>세이브 로드가 작동이 안 됨. 세이브 부분에서 기록이 바로 안뜨고 불러오기 했을 경우 프롤로그부터 다시 시작.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 CSV 잘못 불러와짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 진행 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이로봇 도난 사건에서 불법바이오칩 CSV가 불러와짐. 확인 결과 아이로봇 테이블에는 아이로봇 CSV가 되어있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법바이오칩 이슈 진행 중 캐릭터 이름창이 전환되면서 게임이 정지됨. (제조자가 뜨고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이로봇 도난사건 이슈(issueID_626_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법 바이오칩 이슈(issueID_622_1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,7 +724,7 @@
   <dimension ref="A4:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,10 +876,18 @@
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
       <c r="F16"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -869,10 +901,18 @@
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
       <c r="F17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
